--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value562.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value562.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4026874751757125</v>
+        <v>1.057860016822815</v>
       </c>
       <c r="B1">
-        <v>0.647099128581263</v>
+        <v>1.348351359367371</v>
       </c>
       <c r="C1">
-        <v>1.790424328669495</v>
+        <v>1.984971880912781</v>
       </c>
       <c r="D1">
-        <v>3.32014047304215</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2.248845275873744</v>
+        <v>2.136033535003662</v>
       </c>
     </row>
   </sheetData>
